--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -1,43 +1,285 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\ETZE_2014\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F40593EF-C10B-4E28-96F8-B812A089D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="32310" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trans Tables" sheetId="17" r:id="rId1"/>
+    <sheet name="FILL Table" sheetId="19" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Update Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Insert Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+  <si>
+    <t>* Parameter values for qualifying technologies in each region, not tied to BASE</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Pset_Set</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>Pset_PD</t>
+  </si>
+  <si>
+    <t>Pset_CI</t>
+  </si>
+  <si>
+    <t>Pset_CO</t>
+  </si>
+  <si>
+    <t>Cset_Set</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Cset_CD</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>~TFM_FILL</t>
+  </si>
+  <si>
+    <t>Operation_Sum_Avg_Count</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Tech_Comm_Info</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="53"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +287,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,44 +347,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -144,14 +412,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -179,6 +464,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,158 +492,422 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B3:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="15">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" ht="21" customHeight="1" thickBot="1">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -536,7 +1102,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -545,25 +1111,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F820387F-4A48-42DF-B001-E1D30ECFC076}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEF2BF7A-CFBC-40A6-A3A8-48F35C58B5B9}"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{687E8A62-891A-445A-ABD0-8191DD849968}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6895D1C9-24C2-45CD-8985-1D8E8673A201}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0949E025-517D-485B-BD14-9661728D6FA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C830273-0E35-4F33-BC3C-DE205414258E}"/>
 </file>